--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -832,7 +832,7 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
         <v>1.82</v>
@@ -841,10 +841,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
@@ -886,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -907,7 +907,7 @@
         <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -961,19 +961,19 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
@@ -982,7 +982,7 @@
         <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1105,7 +1105,7 @@
         <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.85</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
         <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
@@ -1627,7 +1627,7 @@
         <v>2.98</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="G10" t="n">
         <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>2.58</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>1.77</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
@@ -871,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
@@ -883,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -949,7 +949,7 @@
         <v>2.34</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
@@ -961,28 +961,28 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.61</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
         <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
         <v>32</v>
@@ -1006,19 +1006,19 @@
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1042,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
         <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1105,7 +1105,7 @@
         <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
         <v>2.2</v>
@@ -1621,10 +1621,10 @@
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
         <v>3.35</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
@@ -940,10 +940,10 @@
         <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
         <v>2.34</v>
@@ -973,16 +973,16 @@
         <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
         <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
         <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
         <v>2.2</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
         <v>2.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
         <v>1.82</v>
@@ -847,7 +847,7 @@
         <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
         <v>2.52</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1615,16 +1615,16 @@
         <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
         <v>3.35</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
         <v>3.05</v>
@@ -1756,13 +1756,13 @@
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.74</v>
       </c>
       <c r="K10" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -1894,10 +1894,10 @@
         <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
         <v>2.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
         <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
@@ -811,10 +811,10 @@
         <v>1.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -835,7 +835,7 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
@@ -883,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -895,7 +895,7 @@
         <v>110</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AL3" t="n">
         <v>65</v>
@@ -970,7 +970,7 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
         <v>1.61</v>
@@ -982,7 +982,7 @@
         <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
@@ -1105,7 +1105,7 @@
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1759,7 +1759,7 @@
         <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K10" t="n">
         <v>2.94</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -1894,10 +1894,10 @@
         <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.85</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,66 +788,66 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.4</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -928,61 +928,61 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,64 +991,64 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN4" t="n">
         <v>55</v>
       </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22</v>
-      </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,64 +1126,64 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.07</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
         <v>1.01</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,135 +1858,270 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Llaneros FC</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="F12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>5.9</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.65</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G2" t="n">
         <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.2</v>
@@ -700,7 +700,7 @@
         <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>1.86</v>
       </c>
       <c r="I3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -940,16 +940,16 @@
         <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
@@ -961,19 +961,19 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
         <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
         <v>3.05</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
@@ -1015,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1030,7 +1030,7 @@
         <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1039,7 +1039,7 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
         <v>11.5</v>
@@ -1102,22 +1102,22 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
         <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
         <v>19</v>
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1159,7 +1159,7 @@
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
         <v>55</v>
@@ -1174,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
         <v>2.4</v>
@@ -1216,13 +1216,13 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
         <v>3.85</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.01</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="K11" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2029,7 +2029,7 @@
         <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
@@ -2050,7 +2050,7 @@
         <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,13 +673,13 @@
         <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -697,10 +697,10 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -820,16 +820,16 @@
         <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
         <v>2.54</v>
@@ -838,76 +838,76 @@
         <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -943,19 +943,19 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,7 +967,7 @@
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
         <v>1.81</v>
@@ -979,70 +979,70 @@
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G5" t="n">
         <v>3.35</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1114,70 +1114,70 @@
         <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>55</v>
       </c>
       <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
         <v>36</v>
       </c>
-      <c r="AL5" t="n">
-        <v>38</v>
-      </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
         <v>2.4</v>
@@ -1216,7 +1216,7 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1225,16 +1225,16 @@
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
@@ -1243,82 +1243,82 @@
         <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="Q8" t="n">
         <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,135 +1993,405 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CA Huracan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Llaneros FC</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>1.93</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>2.14</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>4.4</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>5.9</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.65</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>2.1</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -709,10 +709,10 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
         <v>1.1</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>80</v>
@@ -739,7 +739,7 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>210</v>
@@ -751,25 +751,25 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>190</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>270</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>360</v>
@@ -943,7 +943,7 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.91</v>
@@ -955,13 +955,13 @@
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
@@ -970,13 +970,13 @@
         <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
@@ -1018,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
         <v>17.5</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1090,25 +1090,25 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
         <v>2.56</v>
@@ -1117,13 +1117,13 @@
         <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -1135,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>18.5</v>
@@ -1147,13 +1147,13 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>14.5</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
@@ -1177,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1249,7 +1249,7 @@
         <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
@@ -1261,19 +1261,19 @@
         <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
         <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1282,37 +1282,37 @@
         <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1630,94 +1630,94 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1783,76 +1783,76 @@
         <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.07</v>
@@ -1918,76 +1918,76 @@
         <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
         <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>980</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,19 +742,19 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,13 +766,13 @@
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -805,19 +805,19 @@
         <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -838,10 +838,10 @@
         <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -850,64 +850,64 @@
         <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
@@ -955,22 +955,22 @@
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.45</v>
@@ -979,10 +979,10 @@
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>2.08</v>
@@ -991,7 +991,7 @@
         <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
@@ -1003,13 +1003,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1021,13 +1021,13 @@
         <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
         <v>55</v>
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
         <v>2.26</v>
@@ -1090,31 +1090,31 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>2.66</v>
@@ -1126,16 +1126,16 @@
         <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
         <v>18.5</v>
@@ -1147,7 +1147,7 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
@@ -1159,7 +1159,7 @@
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
         <v>60</v>
@@ -1174,7 +1174,7 @@
         <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,28 +1231,28 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1261,22 +1261,22 @@
         <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
         <v>2.16</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1495,28 +1495,28 @@
         <v>970</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
         <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1633,16 +1633,16 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
         <v>2.94</v>
@@ -1651,13 +1651,13 @@
         <v>1.15</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
         <v>1.3</v>
@@ -1666,58 +1666,58 @@
         <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1750,16 +1750,16 @@
         <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
         <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="K10" t="n">
         <v>3.6</v>
@@ -1771,16 +1771,16 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
         <v>1.14</v>
@@ -1792,16 +1792,16 @@
         <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
@@ -2020,13 +2020,13 @@
         <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.86</v>
@@ -2035,16 +2035,16 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P12" t="n">
         <v>1.42</v>
@@ -2053,76 +2053,76 @@
         <v>2.96</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
@@ -2155,31 +2155,31 @@
         <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="P13" t="n">
         <v>1.35</v>
@@ -2188,76 +2188,76 @@
         <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +721,7 @@
         <v>2.68</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
         <v>980</v>
@@ -838,7 +838,7 @@
         <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
         <v>2.32</v>
@@ -967,7 +967,7 @@
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -1117,7 +1117,7 @@
         <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.79</v>
@@ -1141,10 +1141,10 @@
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1480,7 +1480,7 @@
         <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
         <v>2.16</v>
@@ -1528,7 +1528,7 @@
         <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1624,10 +1624,10 @@
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,13 +1636,13 @@
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
         <v>2.94</v>
@@ -1654,7 +1654,7 @@
         <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
         <v>1.68</v>
@@ -1666,7 +1666,7 @@
         <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -1714,7 +1714,7 @@
         <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>160</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,64 +1771,64 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>1.02</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,64 +1906,64 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="S11" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -2194,7 +2194,7 @@
         <v>8.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U13" t="n">
         <v>1.49</v>
@@ -2263,135 +2263,675 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Llaneros FC</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.12</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>4.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>3.6</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.08</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>2.9</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>1.43</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="R17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.76</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="V18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
         <v>10</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC18" t="n">
         <v>10</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD18" t="n">
         <v>28</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE18" t="n">
         <v>100</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG18" t="n">
         <v>16</v>
       </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AH18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
         <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
@@ -715,7 +715,7 @@
         <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
         <v>2.68</v>
@@ -724,7 +724,7 @@
         <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>80</v>
@@ -736,7 +736,7 @@
         <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>980</v>
@@ -838,10 +838,10 @@
         <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -868,19 +868,19 @@
         <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
         <v>75</v>
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -973,7 +973,7 @@
         <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>3.1</v>
@@ -1252,7 +1252,7 @@
         <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1261,7 +1261,7 @@
         <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>970</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.28</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
@@ -1519,28 +1519,28 @@
         <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
@@ -1549,13 +1549,13 @@
         <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1576,7 +1576,7 @@
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K9" t="n">
         <v>3.1</v>
@@ -1669,7 +1669,7 @@
         <v>7.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
@@ -1678,7 +1678,7 @@
         <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.68</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.42</v>
-      </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
         <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
@@ -1945,19 +1945,19 @@
         <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
         <v>970</v>
@@ -1966,28 +1966,28 @@
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
         <v>2.86</v>
@@ -2068,7 +2068,7 @@
         <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
         <v>7.6</v>
@@ -2173,13 +2173,13 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="P13" t="n">
         <v>1.35</v>
@@ -2188,16 +2188,16 @@
         <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="S13" t="n">
         <v>8.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
         <v>1.42</v>
@@ -2206,7 +2206,7 @@
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
         <v>8.4</v>
@@ -2215,22 +2215,22 @@
         <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
         <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2239,25 +2239,25 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
         <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2314,7 +2314,7 @@
         <v>1.02</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>1.07</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
         <v>2.12</v>
@@ -2431,13 +2431,13 @@
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,28 +2446,28 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
         <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
@@ -2476,58 +2476,58 @@
         <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>1.45</v>
+        <v>2.36</v>
       </c>
       <c r="O16" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.45</v>
@@ -2593,46 +2593,46 @@
         <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
         <v>970</v>
@@ -2647,22 +2647,22 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -2701,10 +2701,10 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K17" t="n">
         <v>3.7</v>
@@ -2716,10 +2716,10 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
         <v>1.13</v>
@@ -2830,7 +2830,7 @@
         <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -2839,7 +2839,7 @@
         <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2848,91 +2848,91 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
         <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
         <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -673,7 +673,7 @@
         <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
         <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
         <v>2.04</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
@@ -838,10 +838,10 @@
         <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -865,7 +865,7 @@
         <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
         <v>24</v>
@@ -874,7 +874,7 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>27</v>
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -988,7 +988,7 @@
         <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1012,7 +1012,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1033,7 +1033,7 @@
         <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1078,7 +1078,7 @@
         <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
         <v>2.26</v>
@@ -1228,19 +1228,19 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
@@ -1249,10 +1249,10 @@
         <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
@@ -1351,10 +1351,10 @@
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1537,43 +1537,43 @@
         <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
         <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>100</v>
@@ -1615,19 +1615,19 @@
         <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
         <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1645,7 +1645,7 @@
         <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="R9" t="n">
         <v>1.15</v>
@@ -1657,16 +1657,16 @@
         <v>2.3</v>
       </c>
       <c r="U9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.68</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X9" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
         <v>9.800000000000001</v>
@@ -1678,7 +1678,7 @@
         <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1699,7 +1699,7 @@
         <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
         <v>970</v>
@@ -1711,13 +1711,13 @@
         <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.45</v>
@@ -1903,10 +1903,10 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
@@ -1921,34 +1921,34 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
         <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1957,7 +1957,7 @@
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AF11" t="n">
         <v>970</v>
@@ -1969,22 +1969,22 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>80</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
         <v>2.2</v>
@@ -2029,7 +2029,7 @@
         <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>3.25</v>
@@ -2047,13 +2047,13 @@
         <v>1.65</v>
       </c>
       <c r="P12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q12" t="n">
         <v>2.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
         <v>6.4</v>
@@ -2062,7 +2062,7 @@
         <v>2.32</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V12" t="n">
         <v>1.21</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>130</v>
@@ -2104,7 +2104,7 @@
         <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
         <v>970</v>
@@ -2116,13 +2116,13 @@
         <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -2164,7 +2164,7 @@
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K13" t="n">
         <v>2.9</v>
@@ -2182,7 +2182,7 @@
         <v>1.81</v>
       </c>
       <c r="P13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q13" t="n">
         <v>3.5</v>
@@ -2206,10 +2206,10 @@
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>970</v>
@@ -2245,19 +2245,19 @@
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2425,13 +2425,13 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
@@ -2446,13 +2446,13 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
         <v>2.32</v>
@@ -2464,10 +2464,10 @@
         <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
@@ -2482,10 +2482,10 @@
         <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2494,16 +2494,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -2524,7 +2524,7 @@
         <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>130</v>
@@ -2560,16 +2560,16 @@
         <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
@@ -2593,7 +2593,7 @@
         <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
         <v>6.2</v>
@@ -2605,7 +2605,7 @@
         <v>1.69</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
         <v>1.33</v>
@@ -2644,7 +2644,7 @@
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
         <v>110</v>
@@ -2653,13 +2653,13 @@
         <v>70</v>
       </c>
       <c r="AL16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN16" t="n">
         <v>130</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>140</v>
       </c>
       <c r="AO16" t="n">
         <v>970</v>
@@ -2701,13 +2701,13 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
         <v>2.18</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2734,37 +2734,37 @@
         <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
         <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>95</v>
@@ -2785,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
         <v>95</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2848,37 +2848,37 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
         <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
         <v>10.5</v>
@@ -2890,10 +2890,10 @@
         <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
@@ -2902,7 +2902,7 @@
         <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
         <v>12.5</v>
@@ -2917,7 +2917,7 @@
         <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -691,10 +691,10 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
         <v>1.65</v>
@@ -745,7 +745,7 @@
         <v>240</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -841,7 +841,7 @@
         <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -850,10 +850,10 @@
         <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
         <v>29</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -961,37 +961,37 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
@@ -1003,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1012,7 +1012,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1036,13 +1036,13 @@
         <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1105,25 +1105,25 @@
         <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
         <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1144,13 +1144,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
         <v>14.5</v>
@@ -1165,16 +1165,16 @@
         <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
         <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1210,10 +1210,10 @@
         <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>3.65</v>
@@ -1222,7 +1222,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,7 +1237,7 @@
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
         <v>1.79</v>
@@ -1246,10 +1246,10 @@
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I7" t="n">
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1498,91 +1498,91 @@
         <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.47</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="n">
         <v>23</v>
       </c>
-      <c r="Y8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
       <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
         <v>17</v>
       </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>50</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1657,7 +1657,7 @@
         <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
         <v>1.31</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,52 +1906,52 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
         <v>2.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
         <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
         <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -1969,25 +1969,25 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>80</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>85</v>
-      </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
         <v>3.25</v>
@@ -2041,7 +2041,7 @@
         <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.65</v>
@@ -2155,7 +2155,7 @@
         <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
@@ -2164,10 +2164,10 @@
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,28 +2179,28 @@
         <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P13" t="n">
         <v>1.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R13" t="n">
         <v>1.11</v>
       </c>
       <c r="S13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
@@ -2461,13 +2461,13 @@
         <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
@@ -2503,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -2524,7 +2524,7 @@
         <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>130</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -2704,10 +2704,10 @@
         <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -2857,13 +2857,13 @@
         <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
         <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
         <v>4.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,40 +691,40 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
         <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>80</v>
@@ -736,13 +736,13 @@
         <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF2" t="n">
         <v>7.8</v>
@@ -754,10 +754,10 @@
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -766,7 +766,7 @@
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN2" t="n">
         <v>14</v>
@@ -820,7 +820,7 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -841,13 +841,13 @@
         <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
         <v>1.98</v>
@@ -895,7 +895,7 @@
         <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
         <v>50</v>
@@ -943,10 +943,10 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -970,22 +970,22 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
         <v>1.27</v>
@@ -1003,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1021,7 +1021,7 @@
         <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>32</v>
@@ -1105,19 +1105,19 @@
         <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
         <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.81</v>
@@ -1126,7 +1126,7 @@
         <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>14</v>
@@ -1138,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1480,7 +1480,7 @@
         <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>2.38</v>
@@ -1489,13 +1489,13 @@
         <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1519,10 +1519,10 @@
         <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
         <v>1.57</v>
@@ -1627,10 +1627,10 @@
         <v>2.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -1645,7 +1645,7 @@
         <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.15</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
         <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2029,19 +2029,19 @@
         <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="n">
         <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O12" t="n">
         <v>1.65</v>
@@ -2068,7 +2068,7 @@
         <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
         <v>7.6</v>
@@ -2170,7 +2170,7 @@
         <v>2.86</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="M13" t="n">
         <v>1.19</v>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2422,52 +2422,52 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
@@ -2476,22 +2476,22 @@
         <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>21</v>
@@ -2500,25 +2500,25 @@
         <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>190</v>
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I16" t="n">
         <v>2.64</v>
@@ -2572,10 +2572,10 @@
         <v>2.82</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
@@ -2692,109 +2692,109 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="P17" t="n">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="Q17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.6</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,13 +2857,13 @@
         <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
         <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
         <v>4.9</v>
@@ -2872,7 +2872,7 @@
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V18" t="n">
         <v>1.25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>1461 Trabzon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>7.6</v>
+        <v>1.89</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>1.37</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.88</v>
+        <v>1.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>4.3</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>1.69</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>1.81</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>1.24</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>13.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>32</v>
       </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL8" t="n">
         <v>50</v>
       </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>1.91</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>1.92</v>
       </c>
       <c r="J9" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.05</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.2</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="n">
         <v>46</v>
       </c>
-      <c r="AL9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>50</v>
-      </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.07</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="n">
         <v>90</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN11" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.43</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S12" t="n">
-        <v>6.4</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>2.32</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>1.61</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>230</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,75 +2138,75 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2215,55 +2215,55 @@
         <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="P14" t="n">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
         <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.36</v>
+        <v>1.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2678,108 +2678,108 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="O17" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="n">
         <v>970</v>
@@ -2788,150 +2788,825 @@
         <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X21" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="F23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.11</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N23" t="n">
         <v>2.8</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O23" t="n">
         <v>1.49</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P23" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.21</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S23" t="n">
         <v>4.9</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="T23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.8</v>
       </c>
-      <c r="X18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="V23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
         <v>34</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA23" t="n">
         <v>130</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB23" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
         <v>21</v>
       </c>
-      <c r="AE18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AE23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH23" t="n">
         <v>23</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI23" t="n">
         <v>110</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ23" t="n">
         <v>32</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK23" t="n">
         <v>29</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL23" t="n">
         <v>55</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM23" t="n">
         <v>190</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN23" t="n">
         <v>29</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO23" t="n">
         <v>120</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
         <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
@@ -805,10 +805,10 @@
         <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I3" t="n">
         <v>2.72</v>
@@ -853,7 +853,7 @@
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:55:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,7 +1120,7 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1198,19 +1198,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
@@ -1234,19 +1234,19 @@
         <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.63</v>
+        <v>970</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>970</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.12</v>
+        <v>970</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.24</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S9" t="n">
         <v>4.5</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>2.08</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>18</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>95</v>
-      </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.82</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="I11" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
         <v>21</v>
       </c>
-      <c r="AA11" t="n">
-        <v>42</v>
-      </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>32</v>
       </c>
-      <c r="AF11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="n">
         <v>55</v>
       </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,40 +2143,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
@@ -2185,85 +2185,85 @@
         <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>55</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>970</v>
-      </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO13" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.66</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="I15" t="n">
         <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.64</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>5.3</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
         <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
         <v>9.4</v>
       </c>
-      <c r="Y15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>970</v>
-      </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>2.74</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.57</v>
       </c>
-      <c r="V17" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AB17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
         <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM17" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AO17" t="n">
-        <v>280</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="O18" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.02</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.47</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
         <v>95</v>
       </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>26</v>
-      </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.38</v>
+        <v>1.02</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,84 +3488,84 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>7.4</v>
@@ -3574,39 +3574,309 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
       </c>
       <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X24" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF25" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH25" t="n">
         <v>23</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI25" t="n">
         <v>110</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ25" t="n">
         <v>32</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK25" t="n">
         <v>29</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL25" t="n">
         <v>55</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM25" t="n">
         <v>190</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN25" t="n">
         <v>29</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO25" t="n">
         <v>120</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.69</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.96</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.96</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="G6" t="n">
-        <v>970</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G7" t="n">
         <v>970</v>
@@ -1351,10 +1351,10 @@
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
         <v>970</v>
@@ -1363,25 +1363,25 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1510,7 +1510,7 @@
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
         <v>7.6</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,31 +1639,31 @@
         <v>2.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
         <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
         <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1672,7 +1672,7 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1792,13 +1792,13 @@
         <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -1825,10 +1825,10 @@
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17.5</v>
@@ -1837,22 +1837,22 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1906,28 +1906,28 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
         <v>2.12</v>
@@ -1936,7 +1936,7 @@
         <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -1945,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
         <v>18.5</v>
@@ -1978,16 +1978,16 @@
         <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.6</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2068,7 +2068,7 @@
         <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2296,43 +2296,43 @@
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
@@ -2341,7 +2341,7 @@
         <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>970</v>
@@ -2353,10 +2353,10 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
@@ -2365,7 +2365,7 @@
         <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2374,13 +2374,13 @@
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
         <v>970</v>
@@ -2425,7 +2425,7 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>2.72</v>
@@ -2434,7 +2434,7 @@
         <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2563,7 +2563,7 @@
         <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
         <v>4.3</v>
@@ -2599,7 +2599,7 @@
         <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U16" t="n">
         <v>1.66</v>
@@ -2623,10 +2623,10 @@
         <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>970</v>
@@ -2638,7 +2638,7 @@
         <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
         <v>970</v>
@@ -2695,22 +2695,22 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
@@ -2740,10 +2740,10 @@
         <v>1.76</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
@@ -2758,7 +2758,7 @@
         <v>970</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
         <v>970</v>
@@ -2965,7 +2965,7 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
         <v>4.8</v>
@@ -2977,10 +2977,10 @@
         <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M19" t="n">
         <v>1.16</v>
@@ -2989,19 +2989,19 @@
         <v>2.12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T19" t="n">
         <v>2.56</v>
@@ -3013,10 +3013,10 @@
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y19" t="n">
         <v>970</v>
@@ -3145,7 +3145,7 @@
         <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
         <v>1.47</v>
@@ -3370,10 +3370,10 @@
         <v>2.02</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
         <v>5.2</v>
@@ -3397,7 +3397,7 @@
         <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
         <v>2.46</v>
@@ -3412,13 +3412,13 @@
         <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
         <v>11.5</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
         <v>3.65</v>
@@ -3514,7 +3514,7 @@
         <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -3523,7 +3523,7 @@
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
         <v>2.4</v>
@@ -3550,7 +3550,7 @@
         <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
         <v>1.64</v>
@@ -3640,58 +3640,58 @@
         <v>3.55</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
         <v>2.46</v>
       </c>
       <c r="I24" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="M24" t="n">
         <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
         <v>970</v>
@@ -3736,10 +3736,10 @@
         <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO24" t="n">
         <v>970</v>
@@ -3805,7 +3805,7 @@
         <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R25" t="n">
         <v>1.21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -673,40 +673,40 @@
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="J2" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
@@ -715,7 +715,7 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H3" t="n">
         <v>1.88</v>
       </c>
       <c r="I3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
         <v>16</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
         <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
         <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="J4" t="n">
         <v>2.96</v>
@@ -976,10 +976,10 @@
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
@@ -988,7 +988,7 @@
         <v>1.66</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -1090,7 +1090,7 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1123,16 +1123,16 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
@@ -1144,22 +1144,22 @@
         <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>30</v>
@@ -1213,7 +1213,7 @@
         <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>970</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
         <v>970</v>
@@ -1504,7 +1504,7 @@
         <v>1.24</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
@@ -1516,7 +1516,7 @@
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,13 +1636,13 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1750,16 +1750,16 @@
         <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1777,7 +1777,7 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
         <v>1.58</v>
@@ -1795,7 +1795,7 @@
         <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W10" t="n">
         <v>1.37</v>
@@ -1828,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>17.5</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1912,25 +1912,25 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U11" t="n">
         <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
@@ -1939,16 +1939,16 @@
         <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
@@ -2017,79 +2017,79 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.16</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="V12" t="n">
         <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2113,16 +2113,16 @@
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
@@ -2299,10 +2299,10 @@
         <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2470,16 +2470,16 @@
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>23</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
@@ -2500,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
         <v>2.46</v>
@@ -2569,31 +2569,31 @@
         <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q16" t="n">
         <v>2.96</v>
       </c>
       <c r="R16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
         <v>6.4</v>
@@ -2602,7 +2602,7 @@
         <v>2.32</v>
       </c>
       <c r="U16" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
         <v>1.3</v>
@@ -2611,7 +2611,7 @@
         <v>1.68</v>
       </c>
       <c r="X16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y16" t="n">
         <v>9.800000000000001</v>
@@ -2623,22 +2623,22 @@
         <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>970</v>
@@ -2650,7 +2650,7 @@
         <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
         <v>75</v>
@@ -2695,10 +2695,10 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
         <v>2.72</v>
@@ -2710,13 +2710,13 @@
         <v>2.98</v>
       </c>
       <c r="L17" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O17" t="n">
         <v>1.54</v>
@@ -2749,7 +2749,7 @@
         <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2977,7 +2977,7 @@
         <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L19" t="n">
         <v>1.73</v>
@@ -2995,7 +2995,7 @@
         <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
@@ -3010,7 +3010,7 @@
         <v>1.54</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.8</v>
@@ -3028,7 +3028,7 @@
         <v>190</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
@@ -3037,13 +3037,13 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
         <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
         <v>970</v>
@@ -3058,7 +3058,7 @@
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.84</v>
       </c>
       <c r="L20" t="n">
         <v>1.77</v>
@@ -3121,16 +3121,16 @@
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R20" t="n">
         <v>1.12</v>
@@ -3139,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="V20" t="n">
         <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X20" t="n">
         <v>6.2</v>
@@ -3172,13 +3172,13 @@
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
         <v>970</v>
@@ -3370,61 +3370,61 @@
         <v>2.02</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
         <v>3.35</v>
       </c>
       <c r="L22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.51</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
@@ -3436,7 +3436,7 @@
         <v>7.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
         <v>21</v>
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
@@ -3463,16 +3463,16 @@
         <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,13 +3526,13 @@
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
         <v>2.84</v>
@@ -3553,7 +3553,7 @@
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
         <v>8</v>
@@ -3637,61 +3637,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
         <v>1.59</v>
       </c>
       <c r="P24" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>2.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>970</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
         <v>2.2</v>
@@ -3784,7 +3784,7 @@
         <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.2</v>
@@ -3793,31 +3793,31 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
         <v>1.27</v>
@@ -3838,7 +3838,7 @@
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -3865,10 +3865,10 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
         <v>190</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -673,10 +673,10 @@
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -688,13 +688,13 @@
         <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P2" t="n">
         <v>1.7</v>
@@ -703,10 +703,10 @@
         <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
@@ -721,7 +721,7 @@
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -805,70 +805,70 @@
         <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -901,13 +901,13 @@
         <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
         <v>1.28</v>
@@ -979,25 +979,25 @@
         <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
         <v>2.16</v>
@@ -1081,7 +1081,7 @@
         <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,16 +1090,16 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.83</v>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
         <v>1.86</v>
@@ -1129,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
         <v>970</v>
@@ -1141,7 +1141,7 @@
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>18</v>
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1168,13 +1168,13 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
         <v>65</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1294,7 +1294,7 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
         <v>970</v>
@@ -1354,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>970</v>
@@ -1366,22 +1366,22 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1483,13 +1483,13 @@
         <v>970</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
         <v>970</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>970</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.66</v>
@@ -1516,16 +1516,16 @@
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,13 +1636,13 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -1663,16 +1663,16 @@
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1690,10 +1690,10 @@
         <v>220</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
@@ -1702,7 +1702,7 @@
         <v>210</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -1756,7 +1756,7 @@
         <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J10" t="n">
         <v>3.85</v>
@@ -1765,7 +1765,7 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1807,31 +1807,31 @@
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
@@ -1849,10 +1849,10 @@
         <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1927,10 +1927,10 @@
         <v>1.77</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
         <v>17.5</v>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2038,7 +2038,7 @@
         <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>5.4</v>
@@ -2047,10 +2047,10 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
@@ -2059,13 +2059,13 @@
         <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
@@ -2083,13 +2083,13 @@
         <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2122,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
@@ -2194,7 +2194,7 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>2.26</v>
@@ -2203,7 +2203,7 @@
         <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
         <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.55</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
@@ -2320,7 +2320,7 @@
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2425,7 +2425,7 @@
         <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>2.74</v>
@@ -2470,7 +2470,7 @@
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
         <v>1.58</v>
@@ -2515,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2581,7 +2581,7 @@
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.65</v>
@@ -2590,7 +2590,7 @@
         <v>1.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.16</v>
@@ -2599,67 +2599,67 @@
         <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
         <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="n">
         <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
         <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>290</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2695,10 +2695,10 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
         <v>2.72</v>
@@ -2707,22 +2707,22 @@
         <v>2.86</v>
       </c>
       <c r="K17" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O17" t="n">
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q17" t="n">
         <v>2.64</v>
@@ -2731,7 +2731,7 @@
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
@@ -2743,7 +2743,7 @@
         <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2773,7 +2773,7 @@
         <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
         <v>970</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.02</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
@@ -3112,7 +3112,7 @@
         <v>2.7</v>
       </c>
       <c r="K20" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="L20" t="n">
         <v>1.77</v>
@@ -3121,16 +3121,16 @@
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P20" t="n">
         <v>1.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R20" t="n">
         <v>1.12</v>
@@ -3142,13 +3142,13 @@
         <v>2.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
         <v>6.2</v>
@@ -3172,7 +3172,7 @@
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3190,7 +3190,7 @@
         <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
         <v>130</v>
@@ -3370,13 +3370,13 @@
         <v>2.02</v>
       </c>
       <c r="G22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>2.94</v>
@@ -3394,19 +3394,19 @@
         <v>2.58</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P22" t="n">
         <v>1.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R22" t="n">
         <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T22" t="n">
         <v>2.12</v>
@@ -3418,7 +3418,7 @@
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X22" t="n">
         <v>9.199999999999999</v>
@@ -3469,7 +3469,7 @@
         <v>230</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
         <v>170</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
         <v>2.5</v>
@@ -3514,10 +3514,10 @@
         <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3529,13 +3529,13 @@
         <v>2.36</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.16</v>
@@ -3544,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="n">
         <v>1.7</v>
@@ -3553,10 +3553,10 @@
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3580,7 +3580,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>13.5</v>
@@ -3604,7 +3604,7 @@
         <v>260</v>
       </c>
       <c r="AN23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,109 +3637,109 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J24" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
         <v>2.28</v>
       </c>
       <c r="U24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W24" t="n">
         <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA24" t="n">
         <v>970</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
         <v>970</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
         <v>110</v>
       </c>
       <c r="AK24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AN24" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO24" t="n">
         <v>970</v>
@@ -3775,7 +3775,7 @@
         <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
         <v>4.2</v>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
@@ -3817,13 +3817,13 @@
         <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
         <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
         <v>9.6</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="n">
         <v>12.5</v>
@@ -3856,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3865,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>120</v>
+        <v>16.5</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.07</v>
@@ -715,64 +715,64 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -829,25 +829,25 @@
         <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
         <v>1.87</v>
@@ -856,43 +856,43 @@
         <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
         <v>48</v>
@@ -901,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AN3" t="n">
         <v>44</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -985,19 +985,19 @@
         <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
@@ -1006,37 +1006,37 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
         <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>65</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
         <v>1.99</v>
@@ -1114,28 +1114,28 @@
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
         <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1144,10 +1144,10 @@
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
         <v>13.5</v>
@@ -1156,10 +1156,10 @@
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AJ5" t="n">
         <v>30</v>
@@ -1168,16 +1168,16 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>650</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="G7" t="n">
-        <v>970</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>16</v>
@@ -1357,7 +1357,7 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1390,13 +1390,13 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,19 +1432,19 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
-        <v>970</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,61 +1525,61 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.34</v>
@@ -1660,10 +1660,10 @@
         <v>1.66</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1675,7 +1675,7 @@
         <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB9" t="n">
         <v>6.2</v>
@@ -1687,7 +1687,7 @@
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1696,16 +1696,16 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,10 +1714,10 @@
         <v>320</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1771,13 +1771,13 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
         <v>1.58</v>
@@ -1786,64 +1786,64 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="n">
         <v>29</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>32</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
         <v>60</v>
@@ -1852,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I11" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
@@ -1909,13 +1909,13 @@
         <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
@@ -1927,31 +1927,31 @@
         <v>1.77</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>9.800000000000001</v>
@@ -1960,19 +1960,19 @@
         <v>18</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
         <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2044,28 +2044,28 @@
         <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
@@ -2074,31 +2074,31 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>28</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>14.5</v>
@@ -2164,7 +2164,7 @@
         <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2206,7 +2206,7 @@
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2236,7 +2236,7 @@
         <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.6</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
@@ -2311,34 +2311,34 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2350,10 +2350,10 @@
         <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
@@ -2386,10 +2386,10 @@
         <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
         <v>970</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.7</v>
@@ -2434,10 +2434,10 @@
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1.22</v>
@@ -2467,7 +2467,7 @@
         <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
         <v>1.46</v>
@@ -2485,31 +2485,31 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
         <v>38</v>
@@ -2518,10 +2518,10 @@
         <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
         <v>20</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.65</v>
@@ -2584,13 +2584,13 @@
         <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.16</v>
@@ -2599,7 +2599,7 @@
         <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U16" t="n">
         <v>1.68</v>
@@ -2608,7 +2608,7 @@
         <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
         <v>7.6</v>
@@ -2617,25 +2617,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
         <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2644,25 +2644,25 @@
         <v>50</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AN16" t="n">
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2695,22 +2695,22 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
         <v>2.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
@@ -2743,7 +2743,7 @@
         <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
@@ -2779,22 +2779,22 @@
         <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AO17" t="n">
         <v>970</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>2.46</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,16 +2851,16 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.02</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
@@ -2869,19 +2869,19 @@
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2896,7 +2896,7 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2962,40 +2962,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
         <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="L19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="P19" t="n">
         <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
@@ -3013,19 +3013,19 @@
         <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
         <v>6.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AB19" t="n">
         <v>5.8</v>
@@ -3034,13 +3034,13 @@
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AE19" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>13.5</v>
@@ -3049,25 +3049,25 @@
         <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
         <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20">
@@ -3100,34 +3100,34 @@
         <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K20" t="n">
         <v>2.86</v>
       </c>
       <c r="L20" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
         <v>1.84</v>
       </c>
       <c r="P20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q20" t="n">
         <v>3.6</v>
@@ -3145,37 +3145,37 @@
         <v>1.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
         <v>18.5</v>
@@ -3184,25 +3184,25 @@
         <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL20" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN20" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AO20" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,34 +3256,34 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02</v>
+        <v>1.72</v>
       </c>
       <c r="O21" t="n">
         <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
         <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
         <v>3.35</v>
@@ -3391,7 +3391,7 @@
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="O22" t="n">
         <v>1.52</v>
@@ -3400,7 +3400,7 @@
         <v>1.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R22" t="n">
         <v>1.19</v>
@@ -3415,13 +3415,13 @@
         <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
@@ -3433,13 +3433,13 @@
         <v>150</v>
       </c>
       <c r="AB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC22" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
         <v>95</v>
@@ -3466,13 +3466,13 @@
         <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AN22" t="n">
         <v>970</v>
       </c>
       <c r="AO22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O23" t="n">
         <v>1.63</v>
@@ -3553,7 +3553,7 @@
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
         <v>7.6</v>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,13 +3796,13 @@
         <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
         <v>2.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -670,7 +670,7 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.08</v>
@@ -700,7 +700,7 @@
         <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.25</v>
@@ -721,7 +721,7 @@
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>500</v>
@@ -730,7 +730,7 @@
         <v>500</v>
       </c>
       <c r="AA2" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>500</v>
@@ -757,7 +757,7 @@
         <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
         <v>500</v>
@@ -766,13 +766,13 @@
         <v>500</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="n">
         <v>14</v>
       </c>
-      <c r="AA3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17</v>
-      </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,40 +940,40 @@
         <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
         <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
         <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
         <v>3.75</v>
@@ -988,7 +988,7 @@
         <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1003,22 +1003,22 @@
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
         <v>60</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1093,7 +1093,7 @@
         <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.45</v>
@@ -1114,28 +1114,28 @@
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1144,7 +1144,7 @@
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
         <v>240</v>
@@ -1153,31 +1153,31 @@
         <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>290</v>
       </c>
       <c r="AM5" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="H6" t="n">
         <v>22</v>
@@ -1219,49 +1219,49 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,31 +1285,31 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
         <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>5.2</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN7" t="n">
         <v>970</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>500</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,97 +1477,97 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.65</v>
       </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.8</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.66</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>2.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>1.66</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Z8" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AH8" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
         <v>500</v>
@@ -1576,13 +1576,13 @@
         <v>500</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>8.6</v>
@@ -1639,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
         <v>1.68</v>
@@ -1654,7 +1654,7 @@
         <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
         <v>1.66</v>
@@ -1663,61 +1663,61 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="AA9" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>13.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1774,13 +1774,13 @@
         <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
         <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
         <v>1.62</v>
@@ -1792,61 +1792,61 @@
         <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>25</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
         <v>25</v>
@@ -1885,7 +1885,7 @@
         <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
         <v>1.87</v>
@@ -1921,7 +1921,7 @@
         <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
         <v>1.77</v>
@@ -1933,7 +1933,7 @@
         <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
@@ -1942,10 +1942,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
@@ -1957,7 +1957,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
         <v>36</v>
@@ -1984,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.16</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2050,13 +2050,13 @@
         <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
         <v>1.59</v>
@@ -2065,16 +2065,16 @@
         <v>2.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF12" t="n">
         <v>28</v>
@@ -2104,10 +2104,10 @@
         <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
@@ -2116,7 +2116,7 @@
         <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2158,7 +2158,7 @@
         <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
@@ -2206,58 +2206,58 @@
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>500</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
@@ -2296,16 +2296,16 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2329,70 +2329,70 @@
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W14" t="n">
         <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK14" t="n">
         <v>60</v>
       </c>
-      <c r="AB14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>970</v>
-      </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
         <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
         <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2446,22 +2446,22 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.62</v>
@@ -2473,7 +2473,7 @@
         <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -2485,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
@@ -2500,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2512,10 +2512,10 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="n">
         <v>130</v>
@@ -2524,10 +2524,10 @@
         <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
         <v>1.65</v>
@@ -2581,37 +2581,37 @@
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="R16" t="n">
         <v>1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U16" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V16" t="n">
         <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y16" t="n">
         <v>9.800000000000001</v>
@@ -2620,22 +2620,22 @@
         <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
         <v>6.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2644,25 +2644,25 @@
         <v>50</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM16" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2698,19 +2698,19 @@
         <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>2.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
@@ -2722,31 +2722,31 @@
         <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S17" t="n">
         <v>5.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="V17" t="n">
         <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2830,76 +2830,76 @@
         <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.62</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>1.25</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.45</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2923,10 +2923,10 @@
         <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
         <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
         <v>5.6</v>
@@ -2986,10 +2986,10 @@
         <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="P19" t="n">
         <v>1.35</v>
@@ -3004,37 +3004,37 @@
         <v>7.6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U19" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
         <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
         <v>500</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
         <v>500</v>
@@ -3043,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>970</v>
@@ -3112,7 +3112,7 @@
         <v>2.72</v>
       </c>
       <c r="K20" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3145,7 +3145,7 @@
         <v>1.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.51</v>
@@ -3175,7 +3175,7 @@
         <v>200</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="n">
         <v>18.5</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="I21" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,31 +3256,31 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.72</v>
+        <v>2.46</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>1.14</v>
@@ -3370,19 +3370,19 @@
         <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.54</v>
@@ -3397,19 +3397,19 @@
         <v>1.52</v>
       </c>
       <c r="P22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R22" t="n">
         <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
         <v>1.74</v>
@@ -3418,31 +3418,31 @@
         <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
         <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
         <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
@@ -3451,10 +3451,10 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
         <v>32</v>
@@ -3463,16 +3463,16 @@
         <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AM22" t="n">
         <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -3505,43 +3505,43 @@
         <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
         <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
         <v>1.63</v>
       </c>
       <c r="P23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
         <v>2.24</v>
@@ -3553,7 +3553,7 @@
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X23" t="n">
         <v>7.6</v>
@@ -3574,10 +3574,10 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3586,10 +3586,10 @@
         <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
         <v>970</v>
@@ -3598,10 +3598,10 @@
         <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3643,10 +3643,10 @@
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J24" t="n">
         <v>2.82</v>
@@ -3655,22 +3655,22 @@
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
         <v>1.43</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>1.15</v>
@@ -3679,7 +3679,7 @@
         <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U24" t="n">
         <v>1.67</v>
@@ -3691,13 +3691,13 @@
         <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA24" t="n">
         <v>970</v>
@@ -3709,40 +3709,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
         <v>970</v>
       </c>
-      <c r="AF24" t="n">
-        <v>30</v>
-      </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3778,10 +3778,10 @@
         <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3796,10 +3796,10 @@
         <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P25" t="n">
         <v>1.53</v>
@@ -3808,7 +3808,7 @@
         <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
         <v>5.1</v>
@@ -3826,7 +3826,7 @@
         <v>1.81</v>
       </c>
       <c r="X25" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
@@ -3835,7 +3835,7 @@
         <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
         <v>7.2</v>
@@ -3847,37 +3847,37 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
         <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
         <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
         <v>90</v>
@@ -733,7 +733,7 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AC2" t="n">
         <v>42</v>
@@ -748,7 +748,7 @@
         <v>500</v>
       </c>
       <c r="AG2" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AH2" t="n">
         <v>500</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -850,16 +850,16 @@
         <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>2.12</v>
@@ -976,7 +976,7 @@
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -988,13 +988,13 @@
         <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
         <v>28</v>
@@ -1003,13 +1003,13 @@
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.32</v>
@@ -1117,19 +1117,19 @@
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>80</v>
@@ -1138,7 +1138,7 @@
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1150,7 +1150,7 @@
         <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1159,13 +1159,13 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AJ5" t="n">
         <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
         <v>290</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
         <v>65</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="H6" t="n">
         <v>22</v>
@@ -1219,49 +1219,49 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.78</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,13 +1285,13 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,16 +1300,16 @@
         <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,76 +1342,76 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.39</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="Q7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.12</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.17</v>
-      </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>190</v>
@@ -1420,19 +1420,19 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
         <v>160</v>
@@ -1441,7 +1441,7 @@
         <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>970</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G8" t="n">
         <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O8" t="n">
         <v>1.66</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
@@ -1531,7 +1531,7 @@
         <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
         <v>95</v>
@@ -1543,10 +1543,10 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
@@ -1612,82 +1612,82 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
         <v>280</v>
       </c>
       <c r="AA9" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AB9" t="n">
         <v>6.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1696,13 +1696,13 @@
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
         <v>40</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I10" t="n">
         <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1777,10 +1777,10 @@
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.62</v>
@@ -1789,28 +1789,28 @@
         <v>2.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
         <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
         <v>22</v>
@@ -1825,13 +1825,13 @@
         <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>25</v>
@@ -1840,19 +1840,19 @@
         <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
         <v>1.87</v>
@@ -1909,19 +1909,19 @@
         <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
         <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
         <v>1.77</v>
@@ -1933,13 +1933,13 @@
         <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
@@ -1966,7 +1966,7 @@
         <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
@@ -1981,10 +1981,10 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
         <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2050,13 +2050,13 @@
         <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.59</v>
@@ -2074,16 +2074,16 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>28</v>
@@ -2155,43 +2155,43 @@
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
         <v>1.65</v>
@@ -2203,7 +2203,7 @@
         <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
         <v>1.7</v>
@@ -2335,7 +2335,7 @@
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.76</v>
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
         <v>1.62</v>
@@ -2473,7 +2473,7 @@
         <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -2509,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
         <v>95</v>
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2566,22 +2566,22 @@
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="O16" t="n">
         <v>1.67</v>
@@ -2590,13 +2590,13 @@
         <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R16" t="n">
         <v>1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T16" t="n">
         <v>2.36</v>
@@ -2605,7 +2605,7 @@
         <v>1.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
         <v>1.71</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="n">
         <v>500</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2827,76 +2827,76 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
         <v>5.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
         <v>46</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
         <v>500</v>
@@ -2908,19 +2908,19 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="n">
         <v>350</v>
@@ -2965,97 +2965,97 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K19" t="n">
         <v>2.92</v>
       </c>
       <c r="L19" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="M19" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="N19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="O19" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="P19" t="n">
         <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="U19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AA19" t="n">
         <v>500</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="n">
         <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G20" t="n">
         <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K20" t="n">
         <v>2.88</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O20" t="n">
         <v>1.84</v>
@@ -3130,13 +3130,13 @@
         <v>1.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.12</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T20" t="n">
         <v>2.6</v>
@@ -3145,7 +3145,7 @@
         <v>1.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
         <v>1.51</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="I21" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.4</v>
       </c>
-      <c r="K21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.9</v>
       </c>
       <c r="U21" t="n">
         <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="W21" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.54</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
         <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
         <v>9</v>
@@ -3439,7 +3439,7 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>260</v>
@@ -3457,7 +3457,7 @@
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
         <v>32</v>
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3574,34 +3574,34 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I24" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -3658,34 +3658,34 @@
         <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
         <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W24" t="n">
         <v>1.33</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3790,40 +3790,40 @@
         <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M25" t="n">
         <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="O25" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
         <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T25" t="n">
         <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3832,10 +3832,10 @@
         <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
         <v>7.2</v>
@@ -3859,13 +3859,13 @@
         <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
@@ -3877,7 +3877,7 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G2" t="n">
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,37 +691,37 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
         <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
         <v>500</v>
@@ -760,7 +760,7 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AL2" t="n">
         <v>500</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AO3" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -937,85 +937,85 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1024,7 +1024,7 @@
         <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
@@ -1096,49 +1096,49 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1147,7 +1147,7 @@
         <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1156,19 +1156,19 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1177,7 +1177,7 @@
         <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H6" t="n">
         <v>22</v>
@@ -1219,40 +1219,40 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="U6" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="V6" t="n">
         <v>1.02</v>
@@ -1261,7 +1261,7 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1291,13 +1291,13 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>650</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,97 +1342,97 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.68</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N7" t="n">
         <v>2.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V7" t="n">
         <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>190</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
         <v>160</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="O8" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="U8" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
         <v>500</v>
@@ -1543,10 +1543,10 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
@@ -1555,19 +1555,19 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
         <v>95</v>
       </c>
       <c r="AH8" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="n">
         <v>500</v>
@@ -1615,7 +1615,7 @@
         <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1642,10 +1642,10 @@
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1654,28 +1654,28 @@
         <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AB9" t="n">
         <v>6.4</v>
@@ -1684,10 +1684,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1702,22 +1702,22 @@
         <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
         <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1771,7 +1771,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
@@ -1786,7 +1786,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
         <v>1.55</v>
@@ -1801,13 +1801,13 @@
         <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
         <v>24</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
@@ -1834,25 +1834,25 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.26</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
         <v>10</v>
       </c>
-      <c r="Z11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
         <v>18</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>3.75</v>
       </c>
       <c r="H12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.16</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2035,34 +2035,34 @@
         <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
         <v>1.87</v>
@@ -2071,28 +2071,28 @@
         <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
         <v>28</v>
@@ -2104,25 +2104,25 @@
         <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2176,88 +2176,88 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
         <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
         <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
         <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>500</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
@@ -2356,7 +2356,7 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
@@ -2374,16 +2374,16 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>160</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>120</v>
       </c>
       <c r="AK14" t="n">
         <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AM14" t="n">
         <v>500</v>
@@ -2392,7 +2392,7 @@
         <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2455,13 +2455,13 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
         <v>1.62</v>
@@ -2473,7 +2473,7 @@
         <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -2521,7 +2521,7 @@
         <v>130</v>
       </c>
       <c r="AM15" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
         <v>18</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
@@ -2572,13 +2572,13 @@
         <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
         <v>1.66</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N16" t="n">
         <v>2.44</v>
@@ -2593,7 +2593,7 @@
         <v>3.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S16" t="n">
         <v>6.8</v>
@@ -2608,10 +2608,10 @@
         <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y16" t="n">
         <v>9.800000000000001</v>
@@ -2632,13 +2632,13 @@
         <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
         <v>48</v>
@@ -2659,7 +2659,7 @@
         <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AO16" t="n">
         <v>500</v>
@@ -2719,13 +2719,13 @@
         <v>2.66</v>
       </c>
       <c r="O17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
         <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
@@ -2737,7 +2737,7 @@
         <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V17" t="n">
         <v>1.62</v>
@@ -2746,37 +2746,37 @@
         <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="n">
         <v>970</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
         <v>1.55</v>
@@ -2854,10 +2854,10 @@
         <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
         <v>2.58</v>
@@ -2866,16 +2866,16 @@
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
         <v>1.39</v>
@@ -2884,13 +2884,13 @@
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
         <v>46</v>
@@ -2908,7 +2908,7 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,13 +2917,13 @@
         <v>270</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
         <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K19" t="n">
         <v>2.92</v>
@@ -2983,28 +2983,28 @@
         <v>1.79</v>
       </c>
       <c r="M19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="n">
         <v>1.53</v>
@@ -3013,7 +3013,7 @@
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
         <v>6.4</v>
@@ -3022,7 +3022,7 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
         <v>500</v>
@@ -3034,7 +3034,7 @@
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>500</v>
@@ -3046,7 +3046,7 @@
         <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AI19" t="n">
         <v>500</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>3.4</v>
@@ -3112,10 +3112,10 @@
         <v>2.74</v>
       </c>
       <c r="K20" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="L20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M20" t="n">
         <v>1.2</v>
@@ -3124,16 +3124,16 @@
         <v>2.12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P20" t="n">
         <v>1.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S20" t="n">
         <v>8.800000000000001</v>
@@ -3148,13 +3148,13 @@
         <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
         <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="G21" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
@@ -3265,19 +3265,19 @@
         <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
         <v>2.34</v>
@@ -3286,10 +3286,10 @@
         <v>1.18</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.57</v>
@@ -3391,13 +3391,13 @@
         <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q22" t="n">
         <v>2.68</v>
@@ -3409,22 +3409,22 @@
         <v>5.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
         <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
         <v>80</v>
@@ -3433,34 +3433,34 @@
         <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>26</v>
       </c>
-      <c r="AI22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>80</v>
-      </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
         <v>160</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
         <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="O23" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
         <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,10 +3571,10 @@
         <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
@@ -3586,10 +3586,10 @@
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
         <v>38</v>
@@ -3598,13 +3598,13 @@
         <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
         <v>2.46</v>
@@ -3649,7 +3649,7 @@
         <v>2.54</v>
       </c>
       <c r="J24" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -3658,43 +3658,43 @@
         <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O24" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
         <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z24" t="n">
         <v>970</v>
@@ -3703,16 +3703,16 @@
         <v>970</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF24" t="n">
         <v>970</v>
@@ -3724,25 +3724,25 @@
         <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25">
@@ -3772,49 +3772,49 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
         <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
         <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
         <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
         <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
         <v>1.77</v>
@@ -3826,7 +3826,7 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
@@ -3862,7 +3862,7 @@
         <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
         <v>32</v>
@@ -3874,7 +3874,7 @@
         <v>210</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
         <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.4</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
@@ -718,13 +718,13 @@
         <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="Z2" t="n">
         <v>500</v>
@@ -733,25 +733,25 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AE2" t="n">
         <v>500</v>
       </c>
       <c r="AF2" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>500</v>
@@ -805,19 +805,19 @@
         <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="I3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -832,40 +832,40 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
         <v>17.5</v>
@@ -874,7 +874,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -883,13 +883,13 @@
         <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -898,13 +898,13 @@
         <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -937,91 +937,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z4" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>27</v>
-      </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
         <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
         <v>500</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1096,10 +1096,10 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.98</v>
@@ -1108,22 +1108,22 @@
         <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1135,34 +1135,34 @@
         <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1231,28 +1231,28 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="U6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
         <v>1.02</v>
@@ -1273,19 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
@@ -1297,19 +1297,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>650</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,58 +1345,58 @@
         <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="O7" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T7" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y7" t="n">
         <v>19</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>190</v>
@@ -1420,7 +1420,7 @@
         <v>490</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>48</v>
@@ -1438,7 +1438,7 @@
         <v>160</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>23</v>
@@ -1540,13 +1540,13 @@
         <v>500</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
@@ -1555,25 +1555,25 @@
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK8" t="n">
         <v>95</v>
       </c>
-      <c r="AH8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>500</v>
-      </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
@@ -1582,7 +1582,7 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1642,10 +1642,10 @@
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1654,25 +1654,25 @@
         <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
         <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
         <v>330</v>
@@ -1684,7 +1684,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AE9" t="n">
         <v>180</v>
@@ -1696,7 +1696,7 @@
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
@@ -1708,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1780,37 +1780,37 @@
         <v>2.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
         <v>22</v>
@@ -1825,13 +1825,13 @@
         <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -1840,13 +1840,13 @@
         <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
         <v>27</v>
@@ -1888,7 +1888,7 @@
         <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I11" t="n">
         <v>1.9</v>
@@ -1900,31 +1900,31 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
@@ -1933,7 +1933,7 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1942,28 +1942,28 @@
         <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
@@ -1978,13 +1978,13 @@
         <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO11" t="n">
         <v>14</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
         <v>3.75</v>
@@ -2032,7 +2032,7 @@
         <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2041,40 +2041,40 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W12" t="n">
         <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
@@ -2086,13 +2086,13 @@
         <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>28</v>
@@ -2104,13 +2104,13 @@
         <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
         <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
         <v>42</v>
@@ -2155,13 +2155,13 @@
         <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
         <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2179,7 +2179,7 @@
         <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
         <v>2.08</v>
@@ -2188,49 +2188,49 @@
         <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W13" t="n">
         <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2245,13 +2245,13 @@
         <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
@@ -2317,10 +2317,10 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
@@ -2329,7 +2329,7 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
@@ -2341,7 +2341,7 @@
         <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
         <v>27</v>
@@ -2353,7 +2353,7 @@
         <v>440</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2362,7 +2362,7 @@
         <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
         <v>28</v>
@@ -2386,13 +2386,13 @@
         <v>210</v>
       </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2425,70 +2425,70 @@
         <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
         <v>1.7</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
         <v>240</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
         <v>9.199999999999999</v>
@@ -2506,10 +2506,10 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
         <v>95</v>
@@ -2518,16 +2518,16 @@
         <v>48</v>
       </c>
       <c r="AL15" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>2.98</v>
@@ -2584,7 +2584,7 @@
         <v>2.44</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P16" t="n">
         <v>1.45</v>
@@ -2605,19 +2605,19 @@
         <v>1.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
         <v>1.7</v>
       </c>
       <c r="X16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
@@ -2629,7 +2629,7 @@
         <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>270</v>
@@ -2701,13 +2701,13 @@
         <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.92</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.6</v>
@@ -2728,7 +2728,7 @@
         <v>2.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
         <v>5.7</v>
@@ -2737,7 +2737,7 @@
         <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
         <v>1.62</v>
@@ -2749,7 +2749,7 @@
         <v>8.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>190</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K18" t="n">
         <v>3.15</v>
@@ -2869,28 +2869,28 @@
         <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
         <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
         <v>46</v>
@@ -2920,7 +2920,7 @@
         <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="n">
         <v>500</v>
@@ -2965,16 +2965,16 @@
         <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K19" t="n">
         <v>2.92</v>
@@ -2986,7 +2986,7 @@
         <v>1.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.8</v>
@@ -3001,19 +3001,19 @@
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U19" t="n">
         <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
         <v>6.4</v>
@@ -3022,7 +3022,7 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AA19" t="n">
         <v>500</v>
@@ -3034,7 +3034,7 @@
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>500</v>
@@ -3112,10 +3112,10 @@
         <v>2.74</v>
       </c>
       <c r="K20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="M20" t="n">
         <v>1.2</v>
@@ -3130,7 +3130,7 @@
         <v>1.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.11</v>
@@ -3250,7 +3250,7 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3259,25 +3259,25 @@
         <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.81</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
       </c>
       <c r="V21" t="n">
         <v>2.34</v>
@@ -3286,28 +3286,28 @@
         <v>1.18</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,13 +3316,13 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3331,13 +3331,13 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>3.3</v>
@@ -3394,10 +3394,10 @@
         <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
         <v>2.68</v>
@@ -3406,25 +3406,25 @@
         <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
         <v>80</v>
@@ -3448,7 +3448,7 @@
         <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>60</v>
@@ -3505,7 +3505,7 @@
         <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
@@ -3526,16 +3526,16 @@
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O23" t="n">
         <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -3553,7 +3553,7 @@
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
         <v>8.4</v>
@@ -3640,7 +3640,7 @@
         <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
         <v>2.46</v>
@@ -3649,13 +3649,13 @@
         <v>2.54</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
@@ -3664,7 +3664,7 @@
         <v>2.52</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P24" t="n">
         <v>1.48</v>
@@ -3682,13 +3682,13 @@
         <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
         <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
         <v>9.199999999999999</v>
@@ -3724,22 +3724,22 @@
         <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
         <v>110</v>
       </c>
       <c r="AK24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
         <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO24" t="n">
         <v>970</v>
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
@@ -3805,31 +3805,31 @@
         <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T25" t="n">
         <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
         <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>30</v>
@@ -3844,7 +3844,7 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>80</v>
@@ -3859,7 +3859,7 @@
         <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
         <v>32</v>
@@ -3874,7 +3874,7 @@
         <v>210</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.42</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W2" t="n">
         <v>3.4</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>60</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>90</v>
+        <v>880</v>
       </c>
       <c r="AE2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -826,70 +826,70 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
         <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.63</v>
@@ -964,67 +964,67 @@
         <v>2.58</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO4" t="n">
         <v>970</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
@@ -1099,7 +1099,7 @@
         <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.98</v>
@@ -1114,49 +1114,49 @@
         <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
         <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
         <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
         <v>370</v>
@@ -1165,7 +1165,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>95</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
         <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="K6" t="n">
-        <v>10.5</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,19 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1306,10 +1306,10 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.28</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="U7" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="X7" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>190</v>
       </c>
       <c r="AE7" t="n">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN7" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>6.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>500</v>
@@ -1543,34 +1543,34 @@
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
         <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1612,118 +1612,118 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.61</v>
       </c>
-      <c r="G9" t="n">
+      <c r="P9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.62</v>
       </c>
-      <c r="H9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.28</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.56</v>
-      </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.65</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.62</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK10" t="n">
         <v>70</v>
       </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
         <v>38</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="n">
         <v>65</v>
       </c>
-      <c r="AL11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
       <c r="AN11" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="I12" t="n">
-        <v>2.14</v>
+        <v>2.98</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>30</v>
-      </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="I13" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>14</v>
       </c>
-      <c r="Z13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
@@ -2302,7 +2302,7 @@
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2314,13 +2314,13 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
@@ -2329,7 +2329,7 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.46</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="O15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.1</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>6.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.7</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>500</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="O16" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="n">
         <v>25</v>
       </c>
-      <c r="AE16" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>48</v>
-      </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>500</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.6</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK17" t="n">
         <v>130</v>
       </c>
-      <c r="AI17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>500</v>
-      </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.6</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="R18" t="n">
         <v>1.12</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S18" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AA18" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>46</v>
+        <v>5.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
         <v>500</v>
       </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
         <v>500</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -2953,109 +2953,109 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N19" t="n">
         <v>2.12</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.2</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S19" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="X19" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
         <v>500</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
         <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -3064,7 +3064,7 @@
         <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO19" t="n">
         <v>500</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.88</v>
+        <v>6.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>1.64</v>
       </c>
       <c r="I20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.8</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.35</v>
-      </c>
       <c r="Q20" t="n">
-        <v>3.7</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>2.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.9</v>
+        <v>1.93</v>
       </c>
       <c r="G21" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.69</v>
+        <v>5.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="V21" t="n">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.4</v>
       </c>
-      <c r="Z21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>3.65</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="O22" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF22" t="n">
         <v>24</v>
       </c>
-      <c r="AE22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AO22" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
         <v>2.5</v>
@@ -3514,10 +3514,10 @@
         <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
         <v>1.64</v>
@@ -3532,7 +3532,7 @@
         <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q23" t="n">
         <v>2.92</v>
@@ -3574,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
@@ -3592,7 +3592,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
         <v>38</v>
@@ -3604,7 +3604,7 @@
         <v>230</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,260 +3623,125 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>3.85</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>2.46</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="O24" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="X24" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB24" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO25" t="n">
         <v>120</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,81 +653,81 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1461 Trabzon</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>3.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X2" t="n">
         <v>5.6</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,19 +736,19 @@
         <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>880</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.2</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
         <v>990</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:55:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.37</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>85</v>
       </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>900</v>
-      </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.58</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.74</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="AN4" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:55:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>1.19</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>2.74</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
         <v>500</v>
       </c>
-      <c r="AB5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>95</v>
-      </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="AN5" t="n">
-        <v>14.5</v>
+        <v>3.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>26</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.66</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.58</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>5.8</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
         <v>1000</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AM7" t="n">
         <v>1000</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>790</v>
-      </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.19</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.12</v>
-      </c>
       <c r="S8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF8" t="n">
         <v>8.6</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK8" t="n">
         <v>25</v>
       </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>120</v>
-      </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>1.92</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>350</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="O10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.89</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10</v>
-      </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>30</v>
-      </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL13" t="n">
         <v>95</v>
       </c>
-      <c r="AK13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>85</v>
-      </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>6.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="AJ14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL14" t="n">
         <v>160</v>
       </c>
-      <c r="AK14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>210</v>
-      </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
         <v>600</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
         <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="O15" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="n">
         <v>23</v>
       </c>
-      <c r="AE15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AH15" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
         <v>500</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G16" t="n">
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M16" t="n">
         <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T16" t="n">
         <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
         <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL16" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="M17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.12</v>
       </c>
-      <c r="N17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.22</v>
-      </c>
       <c r="S17" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>46</v>
+        <v>5.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE17" t="n">
         <v>500</v>
       </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI17" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
         <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2818,97 +2818,97 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="K18" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="N18" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V18" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
         <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
         <v>120</v>
@@ -2917,10 +2917,10 @@
         <v>500</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>430</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="AL18" t="n">
         <v>500</v>
@@ -2929,16 +2929,16 @@
         <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="J19" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.12</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.41</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="X19" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA19" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>970</v>
-      </c>
       <c r="AE19" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="AK19" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AL19" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
         <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AO19" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6.2</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="n">
-        <v>1.64</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="V20" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>2.58</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22">
@@ -3358,40 +3358,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>3.65</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="M22" t="n">
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O22" t="n">
         <v>1.61</v>
@@ -3400,85 +3400,85 @@
         <v>1.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
         <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC22" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="n">
         <v>40</v>
       </c>
-      <c r="AF22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>1000</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,261 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="O23" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="R23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.74</v>
       </c>
-      <c r="V23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X23" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
         <v>230</v>
       </c>
       <c r="AN23" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="n">
         <v>130</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,105 +653,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>18.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>210</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>950</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>1.03</v>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.97</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>11.5</v>
+        <v>1.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>1.12</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>850</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>850</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>130</v>
       </c>
       <c r="X3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>1.27</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:55:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>150</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>200</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>3.95</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>3.05</v>
       </c>
       <c r="R4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S4" t="n">
+        <v>110</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.39</v>
       </c>
-      <c r="S4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>17.5</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>960</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,70 +1063,70 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>8.199999999999999</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>32</v>
       </c>
       <c r="T5" t="n">
-        <v>2.74</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>130</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,31 +1150,31 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>1.26</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.7</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>990</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>1.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>5.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>1.09</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>5.4</v>
+        <v>110</v>
       </c>
       <c r="T6" t="n">
-        <v>2.66</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.5</v>
+        <v>1.23</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>570</v>
       </c>
       <c r="AH6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>1.46</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>650</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18</v>
-      </c>
       <c r="AH7" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>1.89</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.6</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.68</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>270</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.6</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
         <v>95</v>
       </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>20</v>
-      </c>
       <c r="AO8" t="n">
-        <v>330</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.92</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.08</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
         <v>15</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
         <v>34</v>
       </c>
-      <c r="AG9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>85</v>
-      </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,39 +1733,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.75</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,85 +1774,85 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AE10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="n">
         <v>25</v>
       </c>
-      <c r="AB10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AL10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
         <v>15</v>
       </c>
-      <c r="AH10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>30</v>
-      </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I11" t="n">
         <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
@@ -1906,94 +1906,94 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>1.19</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T11" t="n">
         <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
         <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z13" t="n">
         <v>24</v>
       </c>
-      <c r="Y13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>46</v>
-      </c>
       <c r="AA13" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N14" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="P14" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="n">
         <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
         <v>600</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
         <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T15" t="n">
         <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
         <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.45</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
         <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L16" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA16" t="n">
         <v>500</v>
       </c>
-      <c r="AA16" t="n">
-        <v>200</v>
-      </c>
       <c r="AB16" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE16" t="n">
         <v>500</v>
       </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI16" t="n">
         <v>500</v>
       </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>270</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
         <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2683,109 +2683,109 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="K17" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M17" t="n">
         <v>1.2</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="O17" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P17" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="X17" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH17" t="n">
         <v>500</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>120</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AK17" t="n">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="AL17" t="n">
         <v>500</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="G18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.05</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.14</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="U18" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>2.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>65</v>
       </c>
-      <c r="AA18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>220</v>
-      </c>
       <c r="AF18" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="AK18" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,114 +2948,114 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S19" t="n">
         <v>6.8</v>
       </c>
-      <c r="G19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB19" t="n">
         <v>6.4</v>
       </c>
-      <c r="Z19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
         <v>32</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>160</v>
       </c>
       <c r="AL19" t="n">
         <v>160</v>
@@ -3064,16 +3064,16 @@
         <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="L20" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
         <v>26</v>
       </c>
-      <c r="AE20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>60</v>
-      </c>
       <c r="AI20" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
         <v>2.96</v>
@@ -3286,7 +3286,7 @@
         <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y21" t="n">
         <v>7.2</v>
@@ -3298,7 +3298,7 @@
         <v>970</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -3313,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>75</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,261 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="M22" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="P22" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
         <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA23" t="n">
         <v>120</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:55:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>210</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1.03</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,43 +691,43 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.03</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>1.09</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>100</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.12</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>1.15</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:55:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="W3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>130</v>
       </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK3" t="n">
-        <v>1.27</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>150</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>200</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
-        <v>3.95</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>110</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>17.5</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.35</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
         <v>30</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9</v>
-      </c>
       <c r="AG4" t="n">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>32</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>130</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.26</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>990</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.16</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>110</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>1.1</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.23</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
         <v>14</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>570</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.46</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="P7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.56</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>3.15</v>
+        <v>1.68</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z7" t="n">
         <v>24</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
         <v>120</v>
       </c>
-      <c r="AA7" t="n">
-        <v>650</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>340</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>2.88</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>2.86</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.81</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>3.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>8.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>1.54</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>6.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>5.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="P11" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="S11" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>65</v>
       </c>
-      <c r="AC11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>980</v>
-      </c>
       <c r="AF11" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>500</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>1.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>1.63</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>2.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.14</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK12" t="n">
         <v>160</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>46</v>
-      </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="AM12" t="n">
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="P13" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,96 +2273,96 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
       </c>
       <c r="J14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.92</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.78</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
         <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2371,34 +2371,34 @@
         <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S15" t="n">
         <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
         <v>18</v>
       </c>
-      <c r="Z15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>180</v>
-      </c>
       <c r="AE15" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,936 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.2</v>
       </c>
-      <c r="N16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>11.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>38</v>
       </c>
-      <c r="AA16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>38</v>
       </c>
-      <c r="AI16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>44</v>
-      </c>
       <c r="AL16" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>430</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sportivo San Lorenzo</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Llaneros FC</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="W2" t="n">
-        <v>500</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.15</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.31</v>
       </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN3" t="n">
         <v>36</v>
       </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>110</v>
-      </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.94</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF4" t="n">
         <v>14</v>
       </c>
-      <c r="AA4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN4" t="n">
         <v>18</v>
       </c>
-      <c r="AF4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AO4" t="n">
         <v>38</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.1</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>3.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
         <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>19.5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="O7" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="R7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN7" t="n">
         <v>120</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AO7" t="n">
         <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="n">
         <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>16.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
         <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
         <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.35</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.6</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.14</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.84</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>80</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="n">
         <v>200</v>
       </c>
-      <c r="AB9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>500</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1738,49 +1738,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="K10" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="L10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="R10" t="n">
         <v>1.11</v>
@@ -1789,76 +1789,76 @@
         <v>8.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="U10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
-        <v>1.81</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
         <v>6.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="n">
         <v>36</v>
       </c>
-      <c r="AA10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>80</v>
-      </c>
       <c r="AI10" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL10" t="n">
         <v>150</v>
       </c>
-      <c r="AK10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>290</v>
-      </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>1.59</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>2.76</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>270</v>
+      </c>
+      <c r="AO11" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.2</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.63</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>2.58</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>95</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>6.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,48 +2138,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="P13" t="n">
         <v>1.51</v>
@@ -2188,76 +2188,76 @@
         <v>2.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
         <v>6.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>95</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,261 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC15" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
         <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>170</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>330</v>
       </c>
       <c r="H2" t="n">
-        <v>1.83</v>
+        <v>1.12</v>
       </c>
       <c r="I2" t="n">
-        <v>1.84</v>
+        <v>1.13</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>1.39</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>3.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>250</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.06</v>
       </c>
       <c r="V2" t="n">
-        <v>2.18</v>
+        <v>9.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.6</v>
+        <v>1.36</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>18.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>1.27</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
         <v>22</v>
       </c>
-      <c r="Y3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>1.69</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>2.06</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>320</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
         <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.38</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.15</v>
-      </c>
       <c r="R6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.15</v>
       </c>
-      <c r="S6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>7.8</v>
       </c>
       <c r="AA6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
         <v>95</v>
       </c>
-      <c r="AB6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO6" t="n">
         <v>80</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.82</v>
+        <v>1.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.4</v>
       </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AO7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3.55</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB8" t="n">
         <v>7.6</v>
       </c>
-      <c r="Y8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
       <c r="AC8" t="n">
-        <v>6.8</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>95</v>
+        <v>430</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1612,55 +1612,55 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
         <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
         <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="M9" t="n">
         <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
         <v>1.76</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
         <v>2.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>1.84</v>
@@ -1684,10 +1684,10 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
@@ -1705,7 +1705,7 @@
         <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
         <v>200</v>
@@ -1714,7 +1714,7 @@
         <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="J10" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M10" t="n">
         <v>1.2</v>
@@ -1786,73 +1786,73 @@
         <v>1.11</v>
       </c>
       <c r="S10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
         <v>6.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK10" t="n">
         <v>95</v>
       </c>
-      <c r="AK10" t="n">
-        <v>90</v>
-      </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1882,103 +1882,103 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
         <v>15.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
         <v>32</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK11" t="n">
         <v>160</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
@@ -1987,7 +1987,7 @@
         <v>270</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.3</v>
@@ -2044,46 +2044,46 @@
         <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>500</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2095,10 +2095,10 @@
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>50</v>
@@ -2119,7 +2119,7 @@
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2152,73 +2152,73 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M13" t="n">
         <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="O13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y13" t="n">
         <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
@@ -2227,19 +2227,19 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2248,16 +2248,16 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
         <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
         <v>9.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
         <v>28</v>
@@ -2374,25 +2374,25 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2425,22 +2425,22 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
@@ -2449,16 +2449,16 @@
         <v>2.72</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
         <v>2.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
         <v>5.7</v>
@@ -2473,7 +2473,7 @@
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
@@ -2488,7 +2488,7 @@
         <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2518,13 +2518,13 @@
         <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
         <v>2.76</v>
       </c>
       <c r="L2" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="O2" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="P2" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="Q2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X2" t="n">
         <v>5.6</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>18</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4.3</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="M3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.35</v>
       </c>
-      <c r="N3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Q3" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,666 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
         <v>18</v>
       </c>
-      <c r="G4" t="n">
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN4" t="n">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>340</v>
-      </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Llaneros FC</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN6" t="n">
         <v>80</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
